--- a/Reporting/Silver_tables/oc_rates_USG_MONTHLY_2024-08-30.xlsx
+++ b/Reporting/Silver_tables/oc_rates_USG_MONTHLY_2024-08-30.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU37"/>
+  <dimension ref="A1:AV37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -620,50 +620,55 @@
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
+          <t>CP_total_money</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
           <t>Trade_level_negative_exposure_percentage</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Trade_level_positive_exposure_percentage</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Clean_trade_level_negative_exposure_percentage</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Clean_trade_level_positive_exposure_percentage</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Clean_net_margin_MV</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Net_margin_MV</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Margin_RCV_allocation</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Collateral_value_allocated</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>Clean_margin_RCV_allocation</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>Margin_RCV_allocation</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>Collateral_value_allocated</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>Clean_collateral_value_allocated</t>
         </is>
@@ -800,33 +805,36 @@
         <v>69263.0362665531</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>24608000</v>
       </c>
       <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
         <v>0.303796492576376</v>
       </c>
-      <c r="AN2" t="n">
-        <v>0</v>
-      </c>
       <c r="AO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="n">
         <v>0.5919463282293151</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>41000</v>
       </c>
       <c r="AQ2" t="n">
         <v>41000</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>41000</v>
       </c>
       <c r="AS2" t="n">
-        <v>12455.65619563142</v>
+        <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>12455.65619563142</v>
+        <v>0</v>
       </c>
       <c r="AU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -897,7 +905,7 @@
         </is>
       </c>
       <c r="R3" t="n">
-        <v>5611904.2222</v>
+        <v>5611904.2223</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -963,34 +971,37 @@
         <v>69263.0362665531</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>24608000</v>
       </c>
       <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
         <v>0.1834998450762939</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AO3" t="n">
         <v>0.267779742352487</v>
       </c>
-      <c r="AO3" t="n">
-        <v>0</v>
-      </c>
       <c r="AP3" t="n">
-        <v>41000</v>
+        <v>0</v>
       </c>
       <c r="AQ3" t="n">
         <v>41000</v>
       </c>
       <c r="AR3" t="n">
-        <v>10978.96943645197</v>
+        <v>41000</v>
       </c>
       <c r="AS3" t="n">
-        <v>7523.49364812805</v>
+        <v>9310.305591677503</v>
       </c>
       <c r="AT3" t="n">
-        <v>5807080.96389047</v>
+        <v>5808867.775834019</v>
       </c>
       <c r="AU3" t="n">
-        <v>5783132.629051104</v>
+        <v>9310.305591677503</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>5781463.96520633</v>
       </c>
     </row>
     <row r="4">
@@ -1060,7 +1071,7 @@
         </is>
       </c>
       <c r="R4" t="n">
-        <v>3279971.2222</v>
+        <v>3279971.2223</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -1126,34 +1137,37 @@
         <v>69263.0362665531</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>24608000</v>
       </c>
       <c r="AM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="n">
         <v>0.08787935855039451</v>
       </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
       <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
         <v>0.06181603993284118</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>41000</v>
       </c>
       <c r="AQ4" t="n">
         <v>41000</v>
       </c>
       <c r="AR4" t="n">
-        <v>0</v>
+        <v>41000</v>
       </c>
       <c r="AS4" t="n">
-        <v>3603.053700566175</v>
+        <v>5441.563719115735</v>
       </c>
       <c r="AT4" t="n">
-        <v>3390556.325032058</v>
+        <v>3392394.835050608</v>
       </c>
       <c r="AU4" t="n">
-        <v>3379140.360772223</v>
+        <v>5441.563719115735</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>3384581.924491338</v>
       </c>
     </row>
     <row r="5">
@@ -1289,34 +1303,37 @@
         <v>69263.0362665531</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>24608000</v>
       </c>
       <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
         <v>0.1670466677704113</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AO5" t="n">
         <v>0.732220257647513</v>
       </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
       <c r="AP5" t="n">
-        <v>41000</v>
+        <v>0</v>
       </c>
       <c r="AQ5" t="n">
         <v>41000</v>
       </c>
       <c r="AR5" t="n">
-        <v>30021.03056354803</v>
+        <v>41000</v>
       </c>
       <c r="AS5" t="n">
-        <v>6848.913378586863</v>
+        <v>9668.52243172952</v>
       </c>
       <c r="AT5" t="n">
-        <v>6026274.639099266</v>
+        <v>6029094.248152409</v>
       </c>
       <c r="AU5" t="n">
-        <v>6021083.614327402</v>
+        <v>9668.52243172952</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>6000731.106195583</v>
       </c>
     </row>
     <row r="6">
@@ -1452,34 +1469,37 @@
         <v>69263.0362665531</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>24608000</v>
       </c>
       <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="n">
         <v>0.1277000933080764</v>
       </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
       <c r="AO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" t="n">
         <v>0.1163491421200135</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>41000</v>
       </c>
       <c r="AQ6" t="n">
         <v>41000</v>
       </c>
       <c r="AR6" t="n">
-        <v>0</v>
+        <v>41000</v>
       </c>
       <c r="AS6" t="n">
-        <v>5235.703825631133</v>
+        <v>4176.974967490247</v>
       </c>
       <c r="AT6" t="n">
-        <v>2613461.946555531</v>
+        <v>2612403.21769739</v>
       </c>
       <c r="AU6" t="n">
-        <v>2598766.91049853</v>
+        <v>4176.974967490247</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>2602943.88546602</v>
       </c>
     </row>
     <row r="7">
@@ -1549,7 +1569,7 @@
         </is>
       </c>
       <c r="R7" t="n">
-        <v>5227827.5143</v>
+        <v>5227827.514300001</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1615,34 +1635,37 @@
         <v>69263.0362665531</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>24608000</v>
       </c>
       <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="n">
         <v>0.0862085943591759</v>
       </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
       <c r="AO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP7" t="n">
         <v>0.1679771233036708</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>41000</v>
       </c>
       <c r="AQ7" t="n">
         <v>41000</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>41000</v>
       </c>
       <c r="AS7" t="n">
-        <v>3534.552368726212</v>
+        <v>8670.513654096228</v>
       </c>
       <c r="AT7" t="n">
-        <v>6539033.734118727</v>
+        <v>6544169.695404097</v>
       </c>
       <c r="AU7" t="n">
-        <v>6535499.18175</v>
+        <v>8670.513654096228</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>6544169.695404097</v>
       </c>
     </row>
     <row r="8">
@@ -1778,34 +1801,37 @@
         <v>69263.0362665531</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>24608000</v>
       </c>
       <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
         <v>0.008147093065119735</v>
       </c>
-      <c r="AN8" t="n">
-        <v>0</v>
-      </c>
       <c r="AO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP8" t="n">
         <v>0.01149783036176059</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>41000</v>
       </c>
       <c r="AQ8" t="n">
         <v>41000</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>41000</v>
       </c>
       <c r="AS8" t="n">
-        <v>334.0308156699091</v>
+        <v>693.1079323797139</v>
       </c>
       <c r="AT8" t="n">
-        <v>522983.9256904699</v>
+        <v>523343.0028071797</v>
       </c>
       <c r="AU8" t="n">
-        <v>522270.961135</v>
+        <v>693.1079323797139</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>522964.0690673797</v>
       </c>
     </row>
     <row r="9">
@@ -1941,34 +1967,37 @@
         <v>69263.0362665531</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>24608000</v>
       </c>
       <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
         <v>0.008147093065119735</v>
       </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
       <c r="AO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" t="n">
         <v>0.01149783036176059</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>41000</v>
       </c>
       <c r="AQ9" t="n">
         <v>41000</v>
       </c>
       <c r="AR9" t="n">
-        <v>0</v>
+        <v>41000</v>
       </c>
       <c r="AS9" t="n">
-        <v>334.0308156699091</v>
+        <v>693.1079323797139</v>
       </c>
       <c r="AT9" t="n">
-        <v>522983.9256904699</v>
+        <v>523343.0028071797</v>
       </c>
       <c r="AU9" t="n">
-        <v>522270.961135</v>
+        <v>693.1079323797139</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>522964.0690673797</v>
       </c>
     </row>
     <row r="10">
@@ -2104,34 +2133,37 @@
         <v>69263.0362665531</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>24608000</v>
       </c>
       <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
         <v>0.008147093065119735</v>
       </c>
-      <c r="AN10" t="n">
-        <v>0</v>
-      </c>
       <c r="AO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP10" t="n">
         <v>0.01149783036176059</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>41000</v>
       </c>
       <c r="AQ10" t="n">
         <v>41000</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>41000</v>
       </c>
       <c r="AS10" t="n">
-        <v>334.0308156699091</v>
+        <v>693.1079323797139</v>
       </c>
       <c r="AT10" t="n">
-        <v>522983.9256904699</v>
+        <v>523343.0028071797</v>
       </c>
       <c r="AU10" t="n">
-        <v>522270.961135</v>
+        <v>693.1079323797139</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>522964.0690673797</v>
       </c>
     </row>
     <row r="11">
@@ -2267,34 +2299,37 @@
         <v>69263.0362665531</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>24608000</v>
       </c>
       <c r="AM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="n">
         <v>0.008147093065119735</v>
       </c>
-      <c r="AN11" t="n">
-        <v>0</v>
-      </c>
       <c r="AO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP11" t="n">
         <v>0.01149783036176059</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>41000</v>
       </c>
       <c r="AQ11" t="n">
         <v>41000</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>41000</v>
       </c>
       <c r="AS11" t="n">
-        <v>334.0308156699091</v>
+        <v>693.1079323797139</v>
       </c>
       <c r="AT11" t="n">
-        <v>522983.9256904699</v>
+        <v>523343.0028071797</v>
       </c>
       <c r="AU11" t="n">
-        <v>522270.961135</v>
+        <v>693.1079323797139</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>522964.0690673797</v>
       </c>
     </row>
     <row r="12">
@@ -2430,34 +2465,37 @@
         <v>69263.0362665531</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>24608000</v>
       </c>
       <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
         <v>0.008147093065119735</v>
       </c>
-      <c r="AN12" t="n">
-        <v>0</v>
-      </c>
       <c r="AO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP12" t="n">
         <v>0.01149783036176059</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>41000</v>
       </c>
       <c r="AQ12" t="n">
         <v>41000</v>
       </c>
       <c r="AR12" t="n">
-        <v>0</v>
+        <v>41000</v>
       </c>
       <c r="AS12" t="n">
-        <v>334.0308156699091</v>
+        <v>693.1079323797139</v>
       </c>
       <c r="AT12" t="n">
-        <v>522983.9256904699</v>
+        <v>523343.0028071797</v>
       </c>
       <c r="AU12" t="n">
-        <v>522270.961135</v>
+        <v>693.1079323797139</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>522964.0690673797</v>
       </c>
     </row>
     <row r="13">
@@ -2593,34 +2631,37 @@
         <v>69263.0362665531</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>24608000</v>
       </c>
       <c r="AM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="n">
         <v>0.003133483033673268</v>
       </c>
-      <c r="AN13" t="n">
-        <v>0</v>
-      </c>
       <c r="AO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP13" t="n">
         <v>0.00442221460535646</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>41000</v>
       </c>
       <c r="AQ13" t="n">
         <v>41000</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>41000</v>
       </c>
       <c r="AS13" t="n">
-        <v>128.472804380604</v>
+        <v>266.5799739921977</v>
       </c>
       <c r="AT13" t="n">
-        <v>201147.6607286119</v>
+        <v>201285.7678982235</v>
       </c>
       <c r="AU13" t="n">
-        <v>200873.4441799033</v>
+        <v>266.5799739921977</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>201140.0241538955</v>
       </c>
     </row>
     <row r="14">
@@ -2757,22 +2798,22 @@
         <v>0</v>
       </c>
       <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
         <v>0.1658040313976001</v>
       </c>
-      <c r="AN14" t="n">
-        <v>0</v>
-      </c>
       <c r="AO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP14" t="n">
         <v>0.1658040313976001</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>209931.09</v>
       </c>
       <c r="AQ14" t="n">
         <v>209931.09</v>
       </c>
       <c r="AR14" t="n">
-        <v>0</v>
+        <v>209931.09</v>
       </c>
       <c r="AS14" t="n">
         <v>0</v>
@@ -2781,6 +2822,9 @@
         <v>0</v>
       </c>
       <c r="AU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2915,34 +2959,37 @@
         <v>274851.58</v>
       </c>
       <c r="AL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="n">
         <v>0.2682556770597387</v>
       </c>
-      <c r="AM15" t="n">
-        <v>0</v>
-      </c>
       <c r="AN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="n">
         <v>0.2682556770597387</v>
       </c>
-      <c r="AO15" t="n">
-        <v>0</v>
-      </c>
       <c r="AP15" t="n">
-        <v>209931.09</v>
+        <v>0</v>
       </c>
       <c r="AQ15" t="n">
         <v>209931.09</v>
       </c>
       <c r="AR15" t="n">
-        <v>56315.20668383894</v>
+        <v>209931.09</v>
       </c>
       <c r="AS15" t="n">
-        <v>56315.20668383894</v>
+        <v>0</v>
       </c>
       <c r="AT15" t="n">
-        <v>56315.20668383894</v>
+        <v>0</v>
       </c>
       <c r="AU15" t="n">
-        <v>56315.20668383894</v>
+        <v>0</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -3079,22 +3126,22 @@
         <v>0</v>
       </c>
       <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
         <v>0.8341959686024</v>
       </c>
-      <c r="AN16" t="n">
-        <v>0</v>
-      </c>
       <c r="AO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP16" t="n">
         <v>0.8341959686024</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>209931.09</v>
       </c>
       <c r="AQ16" t="n">
         <v>209931.09</v>
       </c>
       <c r="AR16" t="n">
-        <v>0</v>
+        <v>209931.09</v>
       </c>
       <c r="AS16" t="n">
         <v>0</v>
@@ -3103,6 +3150,9 @@
         <v>0</v>
       </c>
       <c r="AU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3237,34 +3287,37 @@
         <v>274851.58</v>
       </c>
       <c r="AL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="n">
         <v>0.2464104938209801</v>
       </c>
-      <c r="AM17" t="n">
-        <v>0</v>
-      </c>
       <c r="AN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO17" t="n">
         <v>0.2464104938209801</v>
       </c>
-      <c r="AO17" t="n">
-        <v>0</v>
-      </c>
       <c r="AP17" t="n">
-        <v>209931.09</v>
+        <v>0</v>
       </c>
       <c r="AQ17" t="n">
         <v>209931.09</v>
       </c>
       <c r="AR17" t="n">
-        <v>51729.2235552766</v>
+        <v>209931.09</v>
       </c>
       <c r="AS17" t="n">
-        <v>51729.2235552766</v>
+        <v>0</v>
       </c>
       <c r="AT17" t="n">
-        <v>51729.2235552766</v>
+        <v>0</v>
       </c>
       <c r="AU17" t="n">
-        <v>51729.2235552766</v>
+        <v>0</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -3398,34 +3451,37 @@
         <v>274851.58</v>
       </c>
       <c r="AL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="n">
         <v>0.4853338291192811</v>
       </c>
-      <c r="AM18" t="n">
-        <v>0</v>
-      </c>
       <c r="AN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="n">
         <v>0.4853338291192811</v>
       </c>
-      <c r="AO18" t="n">
-        <v>0</v>
-      </c>
       <c r="AP18" t="n">
-        <v>209931.09</v>
+        <v>0</v>
       </c>
       <c r="AQ18" t="n">
         <v>209931.09</v>
       </c>
       <c r="AR18" t="n">
-        <v>101886.6597608844</v>
+        <v>209931.09</v>
       </c>
       <c r="AS18" t="n">
-        <v>101886.6597608844</v>
+        <v>0</v>
       </c>
       <c r="AT18" t="n">
-        <v>101886.6597608844</v>
+        <v>0</v>
       </c>
       <c r="AU18" t="n">
-        <v>101886.6597608844</v>
+        <v>0</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -3495,7 +3551,7 @@
         </is>
       </c>
       <c r="R19" t="n">
-        <v>7406605.9722</v>
+        <v>7406605.9723</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -3561,16 +3617,16 @@
         <v>264.0812722301343</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>7928000</v>
       </c>
       <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
         <v>0.9178968547493397</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AO19" t="n">
         <v>1</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>0</v>
       </c>
       <c r="AP19" t="n">
         <v>0</v>
@@ -3588,6 +3644,9 @@
         <v>7805940.623367</v>
       </c>
       <c r="AU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV19" t="n">
         <v>7779889.458000001</v>
       </c>
     </row>
@@ -3658,7 +3717,7 @@
         </is>
       </c>
       <c r="R20" t="n">
-        <v>555369.9121999999</v>
+        <v>555369.9123</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -3724,19 +3783,19 @@
         <v>264.0812722301343</v>
       </c>
       <c r="AL20" t="n">
-        <v>0</v>
+        <v>7928000</v>
       </c>
       <c r="AM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="n">
         <v>0.08210314525066029</v>
       </c>
-      <c r="AN20" t="n">
-        <v>0</v>
-      </c>
       <c r="AO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP20" t="n">
         <v>1</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>0</v>
       </c>
       <c r="AQ20" t="n">
         <v>0</v>
@@ -3751,6 +3810,9 @@
         <v>585674.2608127896</v>
       </c>
       <c r="AU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV20" t="n">
         <v>583719.6601111194</v>
       </c>
     </row>
@@ -3887,16 +3949,16 @@
         <v>14104.91204260103</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>16105000</v>
       </c>
       <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
         <v>0.3902272052727709</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AO21" t="n">
         <v>1</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>0</v>
       </c>
       <c r="AP21" t="n">
         <v>0</v>
@@ -3914,6 +3976,9 @@
         <v>7762785.365965783</v>
       </c>
       <c r="AU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" t="n">
         <v>7726177.648788651</v>
       </c>
     </row>
@@ -4050,19 +4115,19 @@
         <v>14104.91204260103</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>16105000</v>
       </c>
       <c r="AM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="n">
         <v>0.6097727947272291</v>
       </c>
-      <c r="AN22" t="n">
-        <v>0</v>
-      </c>
       <c r="AO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP22" t="n">
         <v>1</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>0</v>
       </c>
       <c r="AQ22" t="n">
         <v>0</v>
@@ -4077,6 +4142,9 @@
         <v>9314642.37883256</v>
       </c>
       <c r="AU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV22" t="n">
         <v>9277038.815308001</v>
       </c>
     </row>
@@ -4213,19 +4281,19 @@
         <v>13561.32346240012</v>
       </c>
       <c r="AL23" t="n">
-        <v>0</v>
+        <v>7685000</v>
       </c>
       <c r="AM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN23" t="n">
         <v>0.8358397084390882</v>
       </c>
-      <c r="AN23" t="n">
-        <v>0</v>
-      </c>
       <c r="AO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP23" t="n">
         <v>0.9714028602425584</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>0</v>
       </c>
       <c r="AQ23" t="n">
         <v>0</v>
@@ -4240,6 +4308,9 @@
         <v>5406245.829216453</v>
       </c>
       <c r="AU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV23" t="n">
         <v>5380852.653579</v>
       </c>
     </row>
@@ -4376,19 +4447,19 @@
         <v>13561.32346240012</v>
       </c>
       <c r="AL24" t="n">
-        <v>0</v>
+        <v>7685000</v>
       </c>
       <c r="AM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="n">
         <v>0.1641602915609118</v>
       </c>
-      <c r="AN24" t="n">
-        <v>0</v>
-      </c>
       <c r="AO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP24" t="n">
         <v>0.02859713975744159</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>0</v>
       </c>
       <c r="AQ24" t="n">
         <v>0</v>
@@ -4403,6 +4474,9 @@
         <v>2748703.286335411</v>
       </c>
       <c r="AU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV24" t="n">
         <v>2741400.779013</v>
       </c>
     </row>
@@ -4539,16 +4613,16 @@
         <v>0</v>
       </c>
       <c r="AL25" t="n">
-        <v>0</v>
+        <v>9082000</v>
       </c>
       <c r="AM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN25" t="n">
         <v>0.6595456270580806</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AO25" t="n">
         <v>0.1882933982196243</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>0</v>
       </c>
       <c r="AP25" t="n">
         <v>0</v>
@@ -4566,6 +4640,9 @@
         <v>6955199.601036221</v>
       </c>
       <c r="AU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV25" t="n">
         <v>6931796.164003201</v>
       </c>
     </row>
@@ -4702,16 +4779,16 @@
         <v>0</v>
       </c>
       <c r="AL26" t="n">
-        <v>0</v>
+        <v>9082000</v>
       </c>
       <c r="AM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="n">
         <v>0.3404543729419193</v>
       </c>
-      <c r="AN26" t="n">
+      <c r="AO26" t="n">
         <v>0.8117066017803757</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>0</v>
       </c>
       <c r="AP26" t="n">
         <v>0</v>
@@ -4729,6 +4806,9 @@
         <v>2869392.309839824</v>
       </c>
       <c r="AU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV26" t="n">
         <v>2852652.556557981</v>
       </c>
     </row>
@@ -4865,19 +4945,19 @@
         <v>29023.74432082474</v>
       </c>
       <c r="AL27" t="n">
-        <v>0</v>
+        <v>17261000</v>
       </c>
       <c r="AM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="n">
         <v>0.5244658282065451</v>
       </c>
-      <c r="AN27" t="n">
-        <v>0</v>
-      </c>
       <c r="AO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP27" t="n">
         <v>0.3842612529586493</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>0</v>
       </c>
       <c r="AQ27" t="n">
         <v>0</v>
@@ -4892,6 +4972,9 @@
         <v>9712905.330798734</v>
       </c>
       <c r="AU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV27" t="n">
         <v>9673831.35125432</v>
       </c>
     </row>
@@ -5028,19 +5111,19 @@
         <v>29023.74432082474</v>
       </c>
       <c r="AL28" t="n">
-        <v>0</v>
+        <v>17261000</v>
       </c>
       <c r="AM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="n">
         <v>0.1231918782380243</v>
       </c>
-      <c r="AN28" t="n">
-        <v>0</v>
-      </c>
       <c r="AO28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP28" t="n">
         <v>0.1566927483016898</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>0</v>
       </c>
       <c r="AQ28" t="n">
         <v>0</v>
@@ -5055,6 +5138,9 @@
         <v>2636884.754049174</v>
       </c>
       <c r="AU28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV28" t="n">
         <v>2629736.291505581</v>
       </c>
     </row>
@@ -5125,7 +5211,7 @@
         </is>
       </c>
       <c r="R29" t="n">
-        <v>5639019.7222</v>
+        <v>5639019.7223</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -5191,19 +5277,19 @@
         <v>29023.74432082474</v>
       </c>
       <c r="AL29" t="n">
-        <v>0</v>
+        <v>17261000</v>
       </c>
       <c r="AM29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN29" t="n">
         <v>0.3523422935554307</v>
       </c>
-      <c r="AN29" t="n">
-        <v>0</v>
-      </c>
       <c r="AO29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP29" t="n">
         <v>0.4590459987396608</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>0</v>
       </c>
       <c r="AQ29" t="n">
         <v>0</v>
@@ -5218,6 +5304,9 @@
         <v>5958208.4873619</v>
       </c>
       <c r="AU29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV29" t="n">
         <v>5938095.728455</v>
       </c>
     </row>
@@ -5286,7 +5375,7 @@
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3098845.475</v>
+        <v>3099796.9916</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -5352,16 +5441,16 @@
         <v>13654.79694073438</v>
       </c>
       <c r="AL30" t="n">
-        <v>0</v>
+        <v>17488000</v>
       </c>
       <c r="AM30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN30" t="n">
         <v>0.1334600670069409</v>
       </c>
-      <c r="AN30" t="n">
+      <c r="AO30" t="n">
         <v>0.1968589488115854</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>0</v>
       </c>
       <c r="AP30" t="n">
         <v>0</v>
@@ -5379,6 +5468,9 @@
         <v>3268751.98368604</v>
       </c>
       <c r="AU30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV30" t="n">
         <v>3250834.7716</v>
       </c>
     </row>
@@ -5447,7 +5539,7 @@
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3221939.0416</v>
+        <v>3222930.3333</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -5513,16 +5605,16 @@
         <v>13654.79694073438</v>
       </c>
       <c r="AL31" t="n">
-        <v>0</v>
+        <v>17488000</v>
       </c>
       <c r="AM31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN31" t="n">
         <v>0.1516708909015833</v>
       </c>
-      <c r="AN31" t="n">
+      <c r="AO31" t="n">
         <v>0.1944092909935114</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>0</v>
       </c>
       <c r="AP31" t="n">
         <v>0</v>
@@ -5540,6 +5632,9 @@
         <v>3399490.31116076</v>
       </c>
       <c r="AU31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV31" t="n">
         <v>3380409.3398</v>
       </c>
     </row>
@@ -5608,7 +5703,7 @@
         </is>
       </c>
       <c r="R32" t="n">
-        <v>3112703.7834</v>
+        <v>3113661.4667</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -5674,16 +5769,16 @@
         <v>13654.79694073438</v>
       </c>
       <c r="AL32" t="n">
-        <v>0</v>
+        <v>17488000</v>
       </c>
       <c r="AM32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN32" t="n">
         <v>0.1425119299480969</v>
       </c>
-      <c r="AN32" t="n">
+      <c r="AO32" t="n">
         <v>0.1693138534250989</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>0</v>
       </c>
       <c r="AP32" t="n">
         <v>0</v>
@@ -5701,6 +5796,9 @@
         <v>3283955.123281928</v>
       </c>
       <c r="AU32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV32" t="n">
         <v>3266610.111987567</v>
       </c>
     </row>
@@ -5769,7 +5867,7 @@
         </is>
       </c>
       <c r="R33" t="n">
-        <v>2344937.2916</v>
+        <v>2345654.7833</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -5835,16 +5933,16 @@
         <v>13654.79694073438</v>
       </c>
       <c r="AL33" t="n">
-        <v>0</v>
+        <v>17488000</v>
       </c>
       <c r="AM33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN33" t="n">
         <v>0.02660536996477549</v>
       </c>
-      <c r="AN33" t="n">
+      <c r="AO33" t="n">
         <v>0.2879441372256615</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>0</v>
       </c>
       <c r="AP33" t="n">
         <v>0</v>
@@ -5862,6 +5960,9 @@
         <v>2468323.535504322</v>
       </c>
       <c r="AU33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV33" t="n">
         <v>2453882.130815753</v>
       </c>
     </row>
@@ -5930,7 +6031,7 @@
         </is>
       </c>
       <c r="R34" t="n">
-        <v>1870306.6666</v>
+        <v>1870878.9333</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -5996,19 +6097,19 @@
         <v>13654.79694073438</v>
       </c>
       <c r="AL34" t="n">
-        <v>0</v>
+        <v>17488000</v>
       </c>
       <c r="AM34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN34" t="n">
         <v>0.3405922982368265</v>
       </c>
-      <c r="AN34" t="n">
-        <v>0</v>
-      </c>
       <c r="AO34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP34" t="n">
         <v>1</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>0</v>
       </c>
       <c r="AQ34" t="n">
         <v>0</v>
@@ -6023,6 +6124,9 @@
         <v>1991005.768115641</v>
       </c>
       <c r="AU34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV34" t="n">
         <v>1981611.365200773</v>
       </c>
     </row>
@@ -6091,7 +6195,7 @@
         </is>
       </c>
       <c r="R35" t="n">
-        <v>1878368.3334</v>
+        <v>1878943.0667</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -6157,16 +6261,16 @@
         <v>13654.79694073438</v>
       </c>
       <c r="AL35" t="n">
-        <v>0</v>
+        <v>17488000</v>
       </c>
       <c r="AM35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN35" t="n">
         <v>0.09940064483439799</v>
       </c>
-      <c r="AN35" t="n">
+      <c r="AO35" t="n">
         <v>0.05369426988326925</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>0</v>
       </c>
       <c r="AP35" t="n">
         <v>0</v>
@@ -6184,6 +6288,9 @@
         <v>1982653.937311263</v>
       </c>
       <c r="AU35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV35" t="n">
         <v>1973370.627058612</v>
       </c>
     </row>
@@ -6252,7 +6359,7 @@
         </is>
       </c>
       <c r="R36" t="n">
-        <v>2045288.7</v>
+        <v>2045915.85</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -6318,16 +6425,16 @@
         <v>13654.79694073438</v>
       </c>
       <c r="AL36" t="n">
-        <v>0</v>
+        <v>17488000</v>
       </c>
       <c r="AM36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN36" t="n">
         <v>0.105758799107379</v>
       </c>
-      <c r="AN36" t="n">
+      <c r="AO36" t="n">
         <v>0.09777949966087351</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>0</v>
       </c>
       <c r="AP36" t="n">
         <v>0</v>
@@ -6345,6 +6452,9 @@
         <v>2158665.344910194</v>
       </c>
       <c r="AU36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV36" t="n">
         <v>2147011.565279117</v>
       </c>
     </row>
@@ -6413,7 +6523,7 @@
         </is>
       </c>
       <c r="R37" t="n">
-        <v>12177581.724</v>
+        <v>12181203.8964</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -6479,16 +6589,16 @@
         <v>0</v>
       </c>
       <c r="AL37" t="n">
-        <v>0</v>
+        <v>12141360</v>
       </c>
       <c r="AM37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN37" t="n">
         <v>1</v>
       </c>
       <c r="AO37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP37" t="n">
         <v>0</v>
@@ -6506,6 +6616,9 @@
         <v>12686254.056</v>
       </c>
       <c r="AU37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV37" t="n">
         <v>12632004</v>
       </c>
     </row>
